--- a/Resultatskjema.xlsx
+++ b/Resultatskjema.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Breili/Documents/HINN/Masteroppgave/1. NY MASTERPROSJEKT/Resultater/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Breili/Documents/HINN/Masteroppgave/1. NY MASTERPROSJEKT/RESULTATER/Masteroppgave/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{655F11A2-E3E7-644C-8173-D08F1E6E7CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75CE7A2-9C18-CC45-B3DE-0326C674EF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -761,7 +761,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -801,6 +801,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1117,9 +1120,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FX77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="152" zoomScaleNormal="152" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D71" sqref="D71"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="152" zoomScaleNormal="152" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AC1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AC2" sqref="AC2:AG70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1974,7 +1977,7 @@
       <c r="BM2" s="4">
         <v>4.7</v>
       </c>
-      <c r="BN2" s="1">
+      <c r="BN2" s="4">
         <v>0.61</v>
       </c>
       <c r="BO2" s="4">
@@ -2230,7 +2233,7 @@
       <c r="BM3" s="4">
         <v>5.5</v>
       </c>
-      <c r="BN3" s="1">
+      <c r="BN3" s="4">
         <v>0.96</v>
       </c>
       <c r="BO3" s="4">
@@ -2485,7 +2488,7 @@
       <c r="BM4" s="4">
         <v>5.8</v>
       </c>
-      <c r="BN4" s="1">
+      <c r="BN4" s="4">
         <v>0.91</v>
       </c>
       <c r="BO4" s="4">
@@ -2741,7 +2744,7 @@
       <c r="BM5" s="4">
         <v>10</v>
       </c>
-      <c r="BN5" s="1">
+      <c r="BN5" s="4">
         <v>1.58</v>
       </c>
       <c r="BO5" s="4">
@@ -2997,7 +3000,7 @@
       <c r="BM6" s="4">
         <v>5</v>
       </c>
-      <c r="BN6" s="1">
+      <c r="BN6" s="4">
         <v>0.59</v>
       </c>
       <c r="BO6" s="4">
@@ -3253,7 +3256,7 @@
       <c r="BM7" s="4">
         <v>4.9000000000000004</v>
       </c>
-      <c r="BN7" s="1">
+      <c r="BN7" s="4">
         <v>0.93</v>
       </c>
       <c r="BO7" s="4">
@@ -3509,7 +3512,7 @@
       <c r="BM8" s="4">
         <v>5.7</v>
       </c>
-      <c r="BN8" s="1">
+      <c r="BN8" s="4">
         <v>1.97</v>
       </c>
       <c r="BO8" s="4">
@@ -3765,7 +3768,7 @@
       <c r="BM9" s="4">
         <v>5.0999999999999996</v>
       </c>
-      <c r="BN9" s="1">
+      <c r="BN9" s="4">
         <v>0.9</v>
       </c>
       <c r="BO9" s="4">
@@ -4021,7 +4024,7 @@
       <c r="BM10" s="4">
         <v>4.9000000000000004</v>
       </c>
-      <c r="BN10" s="1">
+      <c r="BN10" s="4">
         <v>0.46</v>
       </c>
       <c r="BO10" s="4">
@@ -4277,7 +4280,7 @@
       <c r="BM11" s="4">
         <v>4.5999999999999996</v>
       </c>
-      <c r="BN11" s="1">
+      <c r="BN11" s="4">
         <v>1.1299999999999999</v>
       </c>
       <c r="BO11" s="4">
@@ -4533,7 +4536,7 @@
       <c r="BM12" s="4">
         <v>5</v>
       </c>
-      <c r="BN12" s="1">
+      <c r="BN12" s="4">
         <v>0.87</v>
       </c>
       <c r="BO12" s="4">
@@ -4789,7 +4792,7 @@
       <c r="BM13" s="4">
         <v>4.3</v>
       </c>
-      <c r="BN13" s="1">
+      <c r="BN13" s="4">
         <v>3.97</v>
       </c>
       <c r="BO13" s="4">
@@ -5044,7 +5047,7 @@
       <c r="BM14" s="4">
         <v>9.9</v>
       </c>
-      <c r="BN14" s="1">
+      <c r="BN14" s="4">
         <v>2.25</v>
       </c>
       <c r="BO14" s="4">
@@ -5300,7 +5303,7 @@
       <c r="BM15" s="4">
         <v>6.5</v>
       </c>
-      <c r="BN15" s="1">
+      <c r="BN15" s="4">
         <v>0.92</v>
       </c>
       <c r="BO15" s="4">
@@ -5553,16 +5556,16 @@
         <f t="shared" si="12"/>
         <v>3459.6962569999996</v>
       </c>
-      <c r="BM16" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="BN16" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="BO16" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="BP16" s="15" t="s">
+      <c r="BM16" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="BN16" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="BO16" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="BP16" s="21" t="s">
         <v>179</v>
       </c>
       <c r="BQ16">
@@ -5812,7 +5815,7 @@
       <c r="BM17" s="4">
         <v>4.2</v>
       </c>
-      <c r="BN17" s="1">
+      <c r="BN17" s="4">
         <v>4.18</v>
       </c>
       <c r="BO17" s="4">
@@ -6066,7 +6069,7 @@
       <c r="BM18" s="4">
         <v>5.0999999999999996</v>
       </c>
-      <c r="BN18" s="1">
+      <c r="BN18" s="4">
         <v>0.68</v>
       </c>
       <c r="BO18" s="4">
@@ -6322,7 +6325,7 @@
       <c r="BM19" s="4">
         <v>5</v>
       </c>
-      <c r="BN19" s="1">
+      <c r="BN19" s="4">
         <v>2.06</v>
       </c>
       <c r="BO19" s="4">
@@ -6575,16 +6578,16 @@
         <f t="shared" si="12"/>
         <v>3382.5972730000003</v>
       </c>
-      <c r="BM20" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="BN20" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="BO20" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="BP20" s="15" t="s">
+      <c r="BM20" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="BN20" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="BO20" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="BP20" s="21" t="s">
         <v>179</v>
       </c>
       <c r="BQ20">
@@ -6834,13 +6837,13 @@
       <c r="BM21" s="4">
         <v>4.7</v>
       </c>
-      <c r="BN21" s="1">
+      <c r="BN21" s="4">
         <v>1.01</v>
       </c>
-      <c r="BO21" s="1">
+      <c r="BO21" s="4">
         <v>2.1</v>
       </c>
-      <c r="BP21" s="1">
+      <c r="BP21" s="4">
         <v>3.3</v>
       </c>
       <c r="BQ21">
@@ -7090,13 +7093,13 @@
       <c r="BM22" s="4">
         <v>7.7</v>
       </c>
-      <c r="BN22" s="1">
+      <c r="BN22" s="4">
         <v>0.66</v>
       </c>
-      <c r="BO22" s="1">
+      <c r="BO22" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="BP22" s="1">
+      <c r="BP22" s="4">
         <v>2.4</v>
       </c>
       <c r="BQ22">
@@ -7346,13 +7349,13 @@
       <c r="BM23" s="4">
         <v>5.4</v>
       </c>
-      <c r="BN23" s="1">
+      <c r="BN23" s="4">
         <v>1.9</v>
       </c>
-      <c r="BO23" s="1">
+      <c r="BO23" s="4">
         <v>0.9</v>
       </c>
-      <c r="BP23" s="1">
+      <c r="BP23" s="4">
         <v>2.8</v>
       </c>
       <c r="BQ23">
@@ -7602,13 +7605,13 @@
       <c r="BM24" s="4">
         <v>4.8</v>
       </c>
-      <c r="BN24" s="1">
+      <c r="BN24" s="4">
         <v>2.95</v>
       </c>
-      <c r="BO24" s="1">
+      <c r="BO24" s="4">
         <v>1.2</v>
       </c>
-      <c r="BP24" s="1">
+      <c r="BP24" s="4">
         <v>5</v>
       </c>
       <c r="BQ24">
@@ -7858,13 +7861,13 @@
       <c r="BM25" s="4">
         <v>5.2</v>
       </c>
-      <c r="BN25" s="1">
+      <c r="BN25" s="4">
         <v>1.1599999999999999</v>
       </c>
-      <c r="BO25" s="1">
+      <c r="BO25" s="4">
         <v>1.3</v>
       </c>
-      <c r="BP25" s="1">
+      <c r="BP25" s="4">
         <v>3.2</v>
       </c>
       <c r="BQ25">
@@ -8112,7 +8115,7 @@
       <c r="BM26" s="4">
         <v>5.4</v>
       </c>
-      <c r="BN26" s="1">
+      <c r="BN26" s="4">
         <v>0.66</v>
       </c>
       <c r="BO26" s="4">
@@ -8368,7 +8371,7 @@
       <c r="BM27" s="4">
         <v>5.8</v>
       </c>
-      <c r="BN27" s="1">
+      <c r="BN27" s="4">
         <v>0.86</v>
       </c>
       <c r="BO27" s="4">
@@ -8624,7 +8627,7 @@
       <c r="BM28" s="4">
         <v>5.6</v>
       </c>
-      <c r="BN28" s="1">
+      <c r="BN28" s="4">
         <v>1.33</v>
       </c>
       <c r="BO28" s="4">
@@ -8878,7 +8881,7 @@
       <c r="BM29" s="4">
         <v>4.2</v>
       </c>
-      <c r="BN29" s="1">
+      <c r="BN29" s="4">
         <v>0.98</v>
       </c>
       <c r="BO29" s="4">
@@ -9134,7 +9137,7 @@
       <c r="BM30" s="4">
         <v>5.6</v>
       </c>
-      <c r="BN30" s="1">
+      <c r="BN30" s="4">
         <v>4.29</v>
       </c>
       <c r="BO30" s="4">
@@ -9390,7 +9393,7 @@
       <c r="BM31" s="4">
         <v>5.3</v>
       </c>
-      <c r="BN31" s="1">
+      <c r="BN31" s="4">
         <v>0.6</v>
       </c>
       <c r="BO31" s="4">
@@ -9646,7 +9649,7 @@
       <c r="BM32" s="4">
         <v>5.3</v>
       </c>
-      <c r="BN32" s="1">
+      <c r="BN32" s="4">
         <v>1.08</v>
       </c>
       <c r="BO32" s="4">
@@ -9902,7 +9905,7 @@
       <c r="BM33" s="4">
         <v>5.8</v>
       </c>
-      <c r="BN33" s="1">
+      <c r="BN33" s="4">
         <v>1.59</v>
       </c>
       <c r="BO33" s="4">
@@ -10158,7 +10161,7 @@
       <c r="BM34" s="4">
         <v>5</v>
       </c>
-      <c r="BN34" s="1">
+      <c r="BN34" s="4">
         <v>1.23</v>
       </c>
       <c r="BO34" s="4">
@@ -10414,7 +10417,7 @@
       <c r="BM35" s="4">
         <v>5</v>
       </c>
-      <c r="BN35" s="1">
+      <c r="BN35" s="4">
         <v>0.91</v>
       </c>
       <c r="BO35" s="4">
@@ -10670,7 +10673,7 @@
       <c r="BM36" s="4">
         <v>5.6</v>
       </c>
-      <c r="BN36" s="1">
+      <c r="BN36" s="4">
         <v>1.31</v>
       </c>
       <c r="BO36" s="4">
@@ -10926,7 +10929,7 @@
       <c r="BM37" s="4">
         <v>5.0999999999999996</v>
       </c>
-      <c r="BN37" s="1">
+      <c r="BN37" s="4">
         <v>0.44</v>
       </c>
       <c r="BO37" s="4">
@@ -11182,7 +11185,7 @@
       <c r="BM38" s="4">
         <v>4.5999999999999996</v>
       </c>
-      <c r="BN38" s="1">
+      <c r="BN38" s="4">
         <v>1.53</v>
       </c>
       <c r="BO38" s="4">
@@ -11433,16 +11436,16 @@
       <c r="BL39" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="BM39" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="BN39" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="BO39" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="BP39" s="15" t="s">
+      <c r="BM39" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="BN39" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="BO39" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="BP39" s="21" t="s">
         <v>179</v>
       </c>
       <c r="BQ39" s="7" t="s">
@@ -11692,7 +11695,7 @@
       <c r="BM40" s="4">
         <v>5.3</v>
       </c>
-      <c r="BN40" s="1">
+      <c r="BN40" s="4">
         <v>0.9</v>
       </c>
       <c r="BO40" s="4">
@@ -11948,7 +11951,7 @@
       <c r="BM41" s="4">
         <v>4.9000000000000004</v>
       </c>
-      <c r="BN41" s="1">
+      <c r="BN41" s="4">
         <v>0.54</v>
       </c>
       <c r="BO41" s="4">
@@ -12204,7 +12207,7 @@
       <c r="BM42" s="4">
         <v>5</v>
       </c>
-      <c r="BN42" s="1">
+      <c r="BN42" s="4">
         <v>1.0900000000000001</v>
       </c>
       <c r="BO42" s="4">
@@ -12456,16 +12459,16 @@
         <f t="shared" si="12"/>
         <v>2227.4087015</v>
       </c>
-      <c r="BM43" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="BN43" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="BO43" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="BP43" s="15" t="s">
+      <c r="BM43" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="BN43" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="BO43" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="BP43" s="21" t="s">
         <v>179</v>
       </c>
       <c r="BQ43">
@@ -12715,7 +12718,7 @@
       <c r="BM44" s="4">
         <v>5.0999999999999996</v>
       </c>
-      <c r="BN44" s="1">
+      <c r="BN44" s="4">
         <v>0.81</v>
       </c>
       <c r="BO44" s="4">
@@ -12968,16 +12971,16 @@
         <f t="shared" si="12"/>
         <v>1562.2461375</v>
       </c>
-      <c r="BM45" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="BN45" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="BO45" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="BP45" s="15" t="s">
+      <c r="BM45" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="BN45" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="BO45" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="BP45" s="21" t="s">
         <v>179</v>
       </c>
       <c r="BQ45">
@@ -13227,7 +13230,7 @@
       <c r="BM46" s="4">
         <v>7</v>
       </c>
-      <c r="BN46" s="1">
+      <c r="BN46" s="4">
         <v>1.64</v>
       </c>
       <c r="BO46" s="4">
@@ -13478,16 +13481,16 @@
       <c r="BL47" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="BM47" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="BN47" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="BO47" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="BP47" s="15" t="s">
+      <c r="BM47" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="BN47" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="BO47" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="BP47" s="21" t="s">
         <v>179</v>
       </c>
       <c r="BQ47" s="7" t="s">
@@ -13737,7 +13740,7 @@
       <c r="BM48" s="4">
         <v>4.9000000000000004</v>
       </c>
-      <c r="BN48" s="1">
+      <c r="BN48" s="4">
         <v>1.61</v>
       </c>
       <c r="BO48" s="4">
@@ -13993,7 +13996,7 @@
       <c r="BM49" s="4">
         <v>4.0999999999999996</v>
       </c>
-      <c r="BN49" s="1">
+      <c r="BN49" s="4">
         <v>0.82</v>
       </c>
       <c r="BO49" s="4">
@@ -14249,7 +14252,7 @@
       <c r="BM50" s="4">
         <v>4.5999999999999996</v>
       </c>
-      <c r="BN50" s="1">
+      <c r="BN50" s="4">
         <v>0.79</v>
       </c>
       <c r="BO50" s="4">
@@ -14505,7 +14508,7 @@
       <c r="BM51" s="4">
         <v>4</v>
       </c>
-      <c r="BN51" s="1">
+      <c r="BN51" s="4">
         <v>2.88</v>
       </c>
       <c r="BO51" s="4">
@@ -14760,7 +14763,7 @@
       <c r="BM52" s="4">
         <v>8.4</v>
       </c>
-      <c r="BN52" s="1">
+      <c r="BN52" s="4">
         <v>2.2799999999999998</v>
       </c>
       <c r="BO52" s="4">
@@ -15013,16 +15016,16 @@
         <f t="shared" si="12"/>
         <v>3199.54151</v>
       </c>
-      <c r="BM53" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="BN53" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="BO53" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="BP53" s="15" t="s">
+      <c r="BM53" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="BN53" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="BO53" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="BP53" s="21" t="s">
         <v>179</v>
       </c>
       <c r="BQ53">
@@ -15272,7 +15275,7 @@
       <c r="BM54" s="4">
         <v>5.0999999999999996</v>
       </c>
-      <c r="BN54" s="1">
+      <c r="BN54" s="4">
         <v>0.81</v>
       </c>
       <c r="BO54" s="4">
@@ -15525,16 +15528,16 @@
         <f t="shared" si="12"/>
         <v>3506.4492365000001</v>
       </c>
-      <c r="BM55" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="BN55" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="BO55" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="BP55" s="15" t="s">
+      <c r="BM55" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="BN55" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="BO55" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="BP55" s="21" t="s">
         <v>179</v>
       </c>
       <c r="BQ55">
@@ -15784,7 +15787,7 @@
       <c r="BM56" s="4">
         <v>4.7</v>
       </c>
-      <c r="BN56" s="1">
+      <c r="BN56" s="4">
         <v>0.71</v>
       </c>
       <c r="BO56" s="4">
@@ -16040,7 +16043,7 @@
       <c r="BM57" s="4">
         <v>4.5</v>
       </c>
-      <c r="BN57" s="1">
+      <c r="BN57" s="4">
         <v>0.77</v>
       </c>
       <c r="BO57" s="4">
@@ -16296,7 +16299,7 @@
       <c r="BM58" s="4">
         <v>5.4</v>
       </c>
-      <c r="BN58" s="1">
+      <c r="BN58" s="4">
         <v>0.85</v>
       </c>
       <c r="BO58" s="4">
@@ -16552,7 +16555,7 @@
       <c r="BM59" s="4">
         <v>5.7</v>
       </c>
-      <c r="BN59" s="1">
+      <c r="BN59" s="4">
         <v>0.79</v>
       </c>
       <c r="BO59" s="4">
@@ -16804,16 +16807,16 @@
         <f t="shared" si="12"/>
         <v>908.44730279999999</v>
       </c>
-      <c r="BM60" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="BN60" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="BO60" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="BP60" s="15" t="s">
+      <c r="BM60" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="BN60" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="BO60" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="BP60" s="21" t="s">
         <v>179</v>
       </c>
       <c r="BQ60">
@@ -17079,7 +17082,7 @@
       <c r="BM61" s="4">
         <v>6.1</v>
       </c>
-      <c r="BN61" s="1">
+      <c r="BN61" s="4">
         <v>1.3</v>
       </c>
       <c r="BO61" s="4">
@@ -17335,7 +17338,7 @@
       <c r="BM62" s="4">
         <v>4.8</v>
       </c>
-      <c r="BN62" s="1">
+      <c r="BN62" s="4">
         <v>0.67</v>
       </c>
       <c r="BO62" s="4">
@@ -17591,7 +17594,7 @@
       <c r="BM63" s="4">
         <v>6.6</v>
       </c>
-      <c r="BN63" s="1">
+      <c r="BN63" s="4">
         <v>1.56</v>
       </c>
       <c r="BO63" s="4">
@@ -17838,7 +17841,7 @@
       <c r="BM64" s="4">
         <v>5.3</v>
       </c>
-      <c r="BN64" s="1">
+      <c r="BN64" s="4">
         <v>1.0900000000000001</v>
       </c>
       <c r="BO64" s="4">
@@ -18094,7 +18097,7 @@
       <c r="BM65" s="4">
         <v>6</v>
       </c>
-      <c r="BN65" s="1">
+      <c r="BN65" s="4">
         <v>0.9</v>
       </c>
       <c r="BO65" s="4">
@@ -18350,7 +18353,7 @@
       <c r="BM66" s="4">
         <v>5.0999999999999996</v>
       </c>
-      <c r="BN66" s="1">
+      <c r="BN66" s="4">
         <v>0.84</v>
       </c>
       <c r="BO66" s="4">
@@ -18605,7 +18608,7 @@
       <c r="BM67" s="4">
         <v>5.2</v>
       </c>
-      <c r="BN67" s="1">
+      <c r="BN67" s="4">
         <v>0.66</v>
       </c>
       <c r="BO67" s="4">
@@ -18861,7 +18864,7 @@
       <c r="BM68" s="4">
         <v>5.7</v>
       </c>
-      <c r="BN68" s="1">
+      <c r="BN68" s="4">
         <v>1.27</v>
       </c>
       <c r="BO68" s="4">
@@ -19116,7 +19119,7 @@
       <c r="BM69" s="4">
         <v>6</v>
       </c>
-      <c r="BN69" s="1">
+      <c r="BN69" s="4">
         <v>1.94</v>
       </c>
       <c r="BO69" s="4">
@@ -19373,7 +19376,7 @@
       <c r="BM70" s="4">
         <v>4.3</v>
       </c>
-      <c r="BN70" s="1">
+      <c r="BN70" s="4">
         <v>0.66</v>
       </c>
       <c r="BO70" s="4">

--- a/Resultatskjema.xlsx
+++ b/Resultatskjema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Breili/Documents/HINN/Masteroppgave/1. NY MASTERPROSJEKT/RESULTATER/Masteroppgave/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75CE7A2-9C18-CC45-B3DE-0326C674EF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73EB063-4049-534F-9BBB-8121A618F536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="221">
   <si>
     <t>id</t>
   </si>
@@ -1120,9 +1120,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FX77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="152" zoomScaleNormal="152" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AC1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AC2" sqref="AC2:AG70"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="152" zoomScaleNormal="152" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="BI1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BQ45" sqref="BQ45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12971,17 +12971,17 @@
         <f t="shared" si="12"/>
         <v>1562.2461375</v>
       </c>
-      <c r="BM45" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="BN45" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="BO45" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="BP45" s="21" t="s">
-        <v>179</v>
+      <c r="BM45" s="21">
+        <v>5</v>
+      </c>
+      <c r="BN45" s="21">
+        <v>3.61</v>
+      </c>
+      <c r="BO45" s="21">
+        <v>1.2</v>
+      </c>
+      <c r="BP45" s="21">
+        <v>3</v>
       </c>
       <c r="BQ45">
         <v>128</v>
